--- a/TestData/EdukaanCLogin.xlsx
+++ b/TestData/EdukaanCLogin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>TC ID</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Test Result</t>
   </si>
   <si>
     <t>TC_026</t>
@@ -395,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,7 +780,7 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -789,7 +789,7 @@
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -797,25 +797,25 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -838,7 +838,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -847,7 +847,7 @@
       <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -855,20 +855,20 @@
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -877,7 +877,7 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -885,31 +885,31 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -923,7 +923,7 @@
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -935,10 +935,10 @@
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -952,8 +952,8 @@
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
@@ -965,8 +965,8 @@
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
@@ -978,8 +978,8 @@
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
@@ -991,8 +991,8 @@
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1004,10 +1004,10 @@
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1021,8 +1021,8 @@
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1034,10 +1034,10 @@
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1051,8 +1051,8 @@
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1064,8 +1064,8 @@
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1077,8 +1077,8 @@
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1090,8 +1090,8 @@
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,10 +1118,10 @@
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
@@ -1171,25 +1171,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>88</v>
       </c>
@@ -1197,10 +1196,10 @@
         <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>90</v>
@@ -1208,16 +1207,13 @@
       <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>94</v>
+      <c r="B2" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="7">
         <v>8828091027</v>
@@ -1226,18 +1222,18 @@
         <v>123456</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>95</v>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="6">
         <v>8838485868</v>
@@ -1246,41 +1242,44 @@
         <v>654321</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="7">
         <v>8828091027</v>
       </c>
+      <c r="D4" s="6">
+        <v>777777</v>
+      </c>
       <c r="E4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
